--- a/src/main/webapp/file/travel.xlsx
+++ b/src/main/webapp/file/travel.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55047" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55804" uniqueCount="93">
   <si>
     <t>序号</t>
   </si>
@@ -341,6 +341,24 @@
   </si>
   <si>
     <t>3300.000</t>
+  </si>
+  <si>
+    <t>丁志明</t>
+  </si>
+  <si>
+    <t>香山升级数据库和态势客户端、沙河3C态势数据对接</t>
+  </si>
+  <si>
+    <t>3570.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>1925.000</t>
   </si>
 </sst>
 </file>
@@ -3280,7 +3298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="bottomRight" state="frozen" topLeftCell="G4" xSplit="6" ySplit="3"/>
@@ -3477,19 +3495,19 @@
         <v>49</v>
       </c>
       <c r="B4" t="s" s="10">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s" s="10">
         <v>28</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s" s="10">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="10">
         <v>52</v>
@@ -3510,22 +3528,22 @@
         <v>77</v>
       </c>
       <c r="M4" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s" s="10">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s" s="10">
         <v>58</v>
       </c>
       <c r="P4" t="s" s="10">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s" s="10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s" s="10">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="S4" t="s" s="10">
         <v>68</v>
@@ -3537,10 +3555,10 @@
         <v>70</v>
       </c>
       <c r="V4" t="s" s="10">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="W4" t="s" s="10">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="X4" t="s" s="10">
         <v>70</v>
@@ -3556,168 +3574,85 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="M5" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="N5" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="P5" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="Q5" t="s" s="10">
-        <v>60</v>
-      </c>
-      <c r="R5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S5" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="T5" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="U5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V5" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W5" t="s" s="10">
-        <v>86</v>
-      </c>
-      <c r="X5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA5" t="s" s="10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA5" s="11" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/main/webapp/file/travel.xlsx
+++ b/src/main/webapp/file/travel.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55804" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59477" uniqueCount="135">
   <si>
     <t>序号</t>
   </si>
@@ -359,6 +359,132 @@
   </si>
   <si>
     <t>1925.000</t>
+  </si>
+  <si>
+    <t>微核及中粒2018年11月差旅费明细表</t>
+  </si>
+  <si>
+    <t>热舞</t>
+  </si>
+  <si>
+    <t>dsdas</t>
+  </si>
+  <si>
+    <t>2018/11/09</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>2018/11/10</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3313.00</t>
+  </si>
+  <si>
+    <t>60.000</t>
+  </si>
+  <si>
+    <t>110.000</t>
+  </si>
+  <si>
+    <t>2018/11/12</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>1421.00</t>
+  </si>
+  <si>
+    <t>210.000</t>
+  </si>
+  <si>
+    <t>420.000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>成都-大连-成都</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>2018/11/30</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1110.000</t>
+  </si>
+  <si>
+    <t>2035.000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>飒沓</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>dsas</t>
+  </si>
+  <si>
+    <t>2018/11/13</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>2018/11/29</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>2552.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>888.00</t>
+  </si>
+  <si>
+    <t>990.000</t>
+  </si>
+  <si>
+    <t>1815.000</t>
   </si>
 </sst>
 </file>
@@ -3298,7 +3424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="bottomRight" state="frozen" topLeftCell="G4" xSplit="6" ySplit="3"/>
@@ -3341,7 +3467,7 @@
   <sheetData>
     <row ht="25.5" r="1" spans="1:27">
       <c r="A1" s="35" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3495,7 +3621,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s" s="10">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s" s="10">
         <v>28</v>
@@ -3507,49 +3633,49 @@
         <v>27</v>
       </c>
       <c r="F4" t="s" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s" s="10">
         <v>52</v>
       </c>
       <c r="H4" t="s" s="10">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s" s="10">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s" s="10">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s" s="10">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="10">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="10">
         <v>59</v>
       </c>
       <c r="N4" t="s" s="10">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s" s="10">
         <v>58</v>
       </c>
       <c r="P4" t="s" s="10">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s" s="10">
         <v>70</v>
       </c>
       <c r="R4" t="s" s="10">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s" s="10">
         <v>68</v>
       </c>
       <c r="T4" t="s" s="10">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="U4" t="s" s="10">
         <v>70</v>
@@ -3558,7 +3684,7 @@
         <v>91</v>
       </c>
       <c r="W4" t="s" s="10">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="X4" t="s" s="10">
         <v>70</v>
@@ -3574,85 +3700,417 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="M5" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="O5" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="U5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V5" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="X5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="K6" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="M6" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="O6" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="P6" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="Q6" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R6" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="S6" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="T6" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="U6" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V6" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="W6" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="X6" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z6" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="s" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="10">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="O7" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Q7" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R7" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="T7" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="U7" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="W7" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="X7" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y7" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z7" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="J8" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="M8" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="O8" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="P8" t="s" s="10">
+        <v>131</v>
+      </c>
+      <c r="Q8" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="R8" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="S8" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="T8" t="s" s="10">
+        <v>133</v>
+      </c>
+      <c r="U8" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="V8" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="W8" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="X8" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Y8" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="Z8" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="s" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AA9" s="11" t="s">
         <v>66</v>
       </c>
     </row>

--- a/src/main/webapp/file/travel.xlsx
+++ b/src/main/webapp/file/travel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView tabRatio="494" windowHeight="13575" windowWidth="28695" xWindow="0" yWindow="60"/>
+    <workbookView tabRatio="494" windowHeight="7860" windowWidth="20490"/>
   </bookViews>
   <sheets>
     <sheet name="差旅费明细" r:id="rId1" sheetId="1"/>
@@ -18,9 +13,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">差旅费明细!$A$3:$AA$9</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">差旅费明细!$A$3:$AA$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -34,143 +29,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59477" uniqueCount="135">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>出差行程</t>
-  </si>
-  <si>
-    <t>累计
-时间(天)</t>
-  </si>
-  <si>
-    <t>飞机/火车/汽车</t>
-  </si>
-  <si>
-    <t>住宿报销</t>
-  </si>
-  <si>
-    <t>交通补贴</t>
-  </si>
-  <si>
-    <t>生活补贴</t>
-  </si>
-  <si>
-    <t>个人小计</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>公司订购</t>
-  </si>
-  <si>
-    <t>其它订购</t>
-  </si>
-  <si>
-    <t>实报</t>
-  </si>
-  <si>
-    <t>标准/天</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差目的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司订</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人订</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>补贴标准</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿标准</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工资发放补贴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出发时间点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联级</t>
-  </si>
-  <si>
-    <t>执行级</t>
-  </si>
-  <si>
-    <t>软件系统事业部</t>
-  </si>
-  <si>
-    <t>人员
-级别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用所属部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁志明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>香山升级数据库和态势客户端、沙河3C态势数据对接</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>态势升级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>代小明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄龙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>到渭南、西安两地联试TP01广播终端系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="83">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>微核及中粒2018年9月</t>
     </r>
     <r>
@@ -178,326 +46,430 @@
         <b/>
         <sz val="20"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>差旅费明细表</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>费用所属部门</t>
+  </si>
+  <si>
+    <t>人员
+级别</t>
+  </si>
+  <si>
+    <t>出差目的</t>
+  </si>
+  <si>
+    <t>出差行程</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>出发时间点</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>结束时间点</t>
+  </si>
+  <si>
+    <t>累计
+时间(天)</t>
+  </si>
+  <si>
+    <t>飞机/火车/汽车</t>
+  </si>
+  <si>
+    <t>住宿报销</t>
+  </si>
+  <si>
+    <t>交通补贴</t>
+  </si>
+  <si>
+    <t>生活补贴</t>
+  </si>
+  <si>
+    <t>工资发放补贴</t>
+  </si>
+  <si>
+    <t>个人小计</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>公司订购</t>
+  </si>
+  <si>
+    <t>其它订购</t>
+  </si>
+  <si>
+    <t>标准/天</t>
+  </si>
+  <si>
+    <t>住宿标准</t>
+  </si>
+  <si>
+    <t>公司订</t>
+  </si>
+  <si>
+    <t>个人订</t>
+  </si>
+  <si>
+    <t>补贴标准</t>
+  </si>
+  <si>
+    <t>实报</t>
+  </si>
+  <si>
+    <t>丁志明</t>
+  </si>
+  <si>
+    <t>软件系统事业部</t>
+  </si>
+  <si>
+    <t>执行级</t>
+  </si>
+  <si>
+    <t>香山升级数据库和态势客户端、沙河3C态势数据对接</t>
+  </si>
+  <si>
+    <t>成都-北京-成都</t>
+  </si>
+  <si>
+    <t>代小明</t>
+  </si>
+  <si>
+    <t>关联级</t>
+  </si>
+  <si>
+    <t>态势升级</t>
   </si>
   <si>
     <t>成都-大连-成都</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都-北京-成都</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄龙</t>
+  </si>
+  <si>
+    <t>到渭南、西安两地联试TP01广播终端系统</t>
   </si>
   <si>
     <t>成都-渭南-西安-成都</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>李杰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>到上海安装调试健康管理系统</t>
   </si>
   <si>
     <t>成都-上海-成都</t>
   </si>
   <si>
+    <t>蒋建军</t>
+  </si>
+  <si>
+    <t>成都-西安-成都</t>
+  </si>
+  <si>
+    <t>周强</t>
+  </si>
+  <si>
+    <t>出差南京14所</t>
+  </si>
+  <si>
     <t>成都-南京-成都</t>
   </si>
   <si>
-    <t>周强</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>到上海安装调试健康管理系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差南京14所</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都-西安-成都</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋建军</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>微核及中粒2018年11月差旅费明细表</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>热舞</t>
+  </si>
+  <si>
+    <t>dsdas</t>
+  </si>
+  <si>
+    <t>2018/11/09</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>2018/11/10</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3313.00</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>占杰</t>
   </si>
   <si>
-    <t>谈业务</t>
-  </si>
-  <si>
-    <t>成都-北京-成都</t>
-  </si>
-  <si>
-    <t>2018/10/30</t>
-  </si>
-  <si>
-    <t>18:17</t>
-  </si>
-  <si>
-    <t>2018/10/31</t>
-  </si>
-  <si>
-    <t>16:01</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>400.00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>合计</t>
+    <t>2018/11/12</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>1421.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>2018/11/30</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1110.00</t>
+  </si>
+  <si>
+    <t>2035.00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>飒沓</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>dsas</t>
+  </si>
+  <si>
+    <t>2018/11/13</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>2018/11/29</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>1231.00</t>
+  </si>
+  <si>
+    <t>1321.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>888.00</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>1815.00</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>看望</t>
+  </si>
+  <si>
+    <t>2018/11/14</t>
+  </si>
+  <si>
+    <t>2018/11/22</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>335.00</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>935.00</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>公干</t>
+  </si>
+  <si>
+    <t>2018/11/01</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>2018/11/24</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>1232.00</t>
+  </si>
+  <si>
+    <t>1410.00</t>
+  </si>
+  <si>
+    <t>2585.00</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2018/11/16</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>2018/11/23</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>336.00</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>880.00</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>微核及中粒2018年10月差旅费明细表</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>微核及中粒2018年09月差旅费明细表</t>
-  </si>
-  <si>
-    <t>2018/08/22</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>2018/09/08</t>
-  </si>
-  <si>
-    <t>14:15</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>1050.000</t>
-  </si>
-  <si>
-    <t>2100.000</t>
-  </si>
-  <si>
-    <t>2018/09/03</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>2018/09/30</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>1650.000</t>
-  </si>
-  <si>
-    <t>3300.000</t>
-  </si>
-  <si>
-    <t>丁志明</t>
-  </si>
-  <si>
-    <t>香山升级数据库和态势客户端、沙河3C态势数据对接</t>
-  </si>
-  <si>
-    <t>3570.00</t>
-  </si>
-  <si>
-    <t>6800.00</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>1925.000</t>
-  </si>
-  <si>
-    <t>微核及中粒2018年11月差旅费明细表</t>
-  </si>
-  <si>
-    <t>热舞</t>
-  </si>
-  <si>
-    <t>dsdas</t>
-  </si>
-  <si>
-    <t>2018/11/09</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>2018/11/10</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>3313.00</t>
-  </si>
-  <si>
-    <t>60.000</t>
-  </si>
-  <si>
-    <t>110.000</t>
-  </si>
-  <si>
-    <t>2018/11/12</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>1421.00</t>
-  </si>
-  <si>
-    <t>210.000</t>
-  </si>
-  <si>
-    <t>420.000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>成都-大连-成都</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>2018/11/30</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>4500.00</t>
-  </si>
-  <si>
-    <t>1500.00</t>
-  </si>
-  <si>
-    <t>1110.000</t>
-  </si>
-  <si>
-    <t>2035.000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>飒沓</t>
-  </si>
-  <si>
-    <t>2400.00</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>dsas</t>
-  </si>
-  <si>
-    <t>2018/11/13</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>2018/11/29</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>2552.00</t>
-  </si>
-  <si>
-    <t>3200.00</t>
-  </si>
-  <si>
-    <t>888.00</t>
-  </si>
-  <si>
-    <t>990.000</t>
-  </si>
-  <si>
-    <t>1815.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="30">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -507,7 +479,6 @@
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -515,7 +486,27 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -523,37 +514,157 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -561,113 +672,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,12 +695,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -762,335 +955,607 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="4" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="20" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="20" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="17" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="13" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="26" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="176" xfId="0">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="11" numFmtId="176" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="17" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="17" numFmtId="176" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="3" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="76">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="14" xfId="76">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="176" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="17" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="6" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="6" numFmtId="20" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="3" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="3" fontId="3" numFmtId="7" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="6" numFmtId="176" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="3" fontId="3" numFmtId="7" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="3" fontId="3" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="3" numFmtId="7" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="20" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="7" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="6" numFmtId="14" xfId="25">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="20" xfId="76">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="6" numFmtId="20" xfId="25">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="20" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="25">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="5" numFmtId="20" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="22" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="7" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="6" numFmtId="7" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="11" numFmtId="177" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="11" numFmtId="20" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="22" numFmtId="20" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="176" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="3" fontId="2" numFmtId="176" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="3" fontId="2" numFmtId="176" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="2" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="3" fontId="2" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="百分比 2" xfId="9"/>
+  <cellStyles count="98">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle name="常规 10" xfId="17"/>
-    <cellStyle name="常规 10 2" xfId="37"/>
-    <cellStyle name="常规 11" xfId="18"/>
-    <cellStyle name="常规 11 2" xfId="38"/>
-    <cellStyle name="常规 12" xfId="13"/>
-    <cellStyle name="常规 12 2" xfId="33"/>
-    <cellStyle name="常规 13" xfId="19"/>
-    <cellStyle name="常规 13 2" xfId="39"/>
-    <cellStyle name="常规 14" xfId="20"/>
-    <cellStyle name="常规 14 2" xfId="40"/>
-    <cellStyle name="常规 15" xfId="21"/>
-    <cellStyle name="常规 15 2" xfId="41"/>
-    <cellStyle name="常规 16" xfId="22"/>
-    <cellStyle name="常规 16 2" xfId="42"/>
-    <cellStyle name="常规 17" xfId="23"/>
-    <cellStyle name="常规 17 2" xfId="43"/>
-    <cellStyle name="常规 18" xfId="24"/>
-    <cellStyle name="常规 18 2" xfId="44"/>
-    <cellStyle name="常规 19" xfId="25"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 2 2" xfId="8"/>
-    <cellStyle name="常规 2 3" xfId="7"/>
-    <cellStyle name="常规 2 4" xfId="31"/>
-    <cellStyle name="常规 2 5" xfId="28"/>
-    <cellStyle name="常规 2 6" xfId="45"/>
-    <cellStyle name="常规 20" xfId="29"/>
-    <cellStyle name="常规 21" xfId="27"/>
-    <cellStyle name="常规 22" xfId="46"/>
-    <cellStyle name="常规 23" xfId="47"/>
-    <cellStyle name="常规 24" xfId="48"/>
-    <cellStyle name="常规 25" xfId="49"/>
-    <cellStyle name="常规 3" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="3"/>
-    <cellStyle name="常规 3 3" xfId="26"/>
-    <cellStyle name="常规 4" xfId="5"/>
-    <cellStyle name="常规 4 2" xfId="6"/>
-    <cellStyle name="常规 4 3" xfId="10"/>
-    <cellStyle name="常规 4 3 2" xfId="11"/>
-    <cellStyle name="常规 5" xfId="2"/>
-    <cellStyle name="常规 5 2" xfId="30"/>
-    <cellStyle name="常规 6" xfId="12"/>
-    <cellStyle name="常规 6 2" xfId="32"/>
-    <cellStyle name="常规 7" xfId="14"/>
-    <cellStyle name="常规 7 2" xfId="34"/>
-    <cellStyle name="常规 8" xfId="15"/>
-    <cellStyle name="常规 8 2" xfId="35"/>
-    <cellStyle name="常规 9" xfId="16"/>
-    <cellStyle name="常规 9 2" xfId="36"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle name="常规 13 2" xfId="5"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="6"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="7"/>
+    <cellStyle builtinId="27" name="差" xfId="8"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="9"/>
+    <cellStyle name="常规 15 2" xfId="10"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle builtinId="8" name="超链接" xfId="12"/>
+    <cellStyle builtinId="5" name="百分比" xfId="13"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="14"/>
+    <cellStyle name="百分比 2" xfId="15"/>
+    <cellStyle builtinId="10" name="注释" xfId="16"/>
+    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="19"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="20"/>
+    <cellStyle builtinId="15" name="标题" xfId="21"/>
+    <cellStyle name="常规 5 2" xfId="22"/>
+    <cellStyle name="常规 12" xfId="23"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="24"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="25"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="26"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="27"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="28"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="29"/>
+    <cellStyle builtinId="21" name="输出" xfId="30"/>
+    <cellStyle builtinId="22" name="计算" xfId="31"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="32"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="33"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="34"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="35"/>
+    <cellStyle builtinId="25" name="汇总" xfId="36"/>
+    <cellStyle builtinId="26" name="好" xfId="37"/>
+    <cellStyle name="常规 21" xfId="38"/>
+    <cellStyle name="常规 16" xfId="39"/>
+    <cellStyle builtinId="28" name="适中" xfId="40"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="41"/>
+    <cellStyle name="常规 8 2" xfId="42"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="43"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="44"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="45"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="46"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="47"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="48"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="49"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="50"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="51"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="52"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="53"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="54"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="55"/>
+    <cellStyle name="常规 10" xfId="56"/>
+    <cellStyle name="常规 16 2" xfId="57"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="58"/>
+    <cellStyle name="常规 10 2" xfId="59"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="60"/>
+    <cellStyle name="常规 11" xfId="61"/>
+    <cellStyle name="常规 13" xfId="62"/>
+    <cellStyle name="常规 11 2" xfId="63"/>
+    <cellStyle name="常规 12 2" xfId="64"/>
+    <cellStyle name="常规 14" xfId="65"/>
+    <cellStyle name="常规 14 2" xfId="66"/>
+    <cellStyle name="常规 20" xfId="67"/>
+    <cellStyle name="常规 15" xfId="68"/>
+    <cellStyle name="常规 22" xfId="69"/>
+    <cellStyle name="常规 17" xfId="70"/>
+    <cellStyle name="常规 17 2" xfId="71"/>
+    <cellStyle name="常规 23" xfId="72"/>
+    <cellStyle name="常规 18" xfId="73"/>
+    <cellStyle name="常规 18 2" xfId="74"/>
+    <cellStyle name="常规 24" xfId="75"/>
+    <cellStyle name="常规 19" xfId="76"/>
+    <cellStyle name="常规 2" xfId="77"/>
+    <cellStyle name="常规 2 2" xfId="78"/>
+    <cellStyle name="常规 2 3" xfId="79"/>
+    <cellStyle name="常规 2 4" xfId="80"/>
+    <cellStyle name="常规 2 5" xfId="81"/>
+    <cellStyle name="常规 2 6" xfId="82"/>
+    <cellStyle name="常规 25" xfId="83"/>
+    <cellStyle name="常规 3" xfId="84"/>
+    <cellStyle name="常规 3 2" xfId="85"/>
+    <cellStyle name="常规 3 3" xfId="86"/>
+    <cellStyle name="常规 4" xfId="87"/>
+    <cellStyle name="常规 4 2" xfId="88"/>
+    <cellStyle name="常规 4 3" xfId="89"/>
+    <cellStyle name="常规 4 3 2" xfId="90"/>
+    <cellStyle name="常规 5" xfId="91"/>
+    <cellStyle name="常规 6 2" xfId="92"/>
+    <cellStyle name="常规 7" xfId="93"/>
+    <cellStyle name="常规 7 2" xfId="94"/>
+    <cellStyle name="常规 8" xfId="95"/>
+    <cellStyle name="常规 9" xfId="96"/>
+    <cellStyle name="常规 9 2" xfId="97"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="差旅费明细"/>
@@ -1240,6 +1705,8 @@
           <cell r="E7" t="str">
             <v>经理</v>
           </cell>
+        </row>
+        <row r="7">
           <cell r="G7" t="str">
             <v>部门级</v>
           </cell>
@@ -2957,6 +3424,8 @@
           <cell r="E93" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="93">
           <cell r="G93" t="str">
             <v>执行级</v>
           </cell>
@@ -2974,6 +3443,8 @@
           <cell r="E94" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="94">
           <cell r="G94" t="str">
             <v>执行级</v>
           </cell>
@@ -2991,6 +3462,8 @@
           <cell r="E95" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="95">
           <cell r="G95" t="str">
             <v>执行级</v>
           </cell>
@@ -3008,6 +3481,8 @@
           <cell r="E96" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="96">
           <cell r="G96" t="str">
             <v>执行级</v>
           </cell>
@@ -3025,6 +3500,8 @@
           <cell r="E97" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="97">
           <cell r="G97" t="str">
             <v>执行级</v>
           </cell>
@@ -3042,6 +3519,8 @@
           <cell r="E98" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="98">
           <cell r="G98" t="str">
             <v>执行级</v>
           </cell>
@@ -3059,6 +3538,8 @@
           <cell r="E99" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="99">
           <cell r="G99" t="str">
             <v>执行级</v>
           </cell>
@@ -3076,6 +3557,8 @@
           <cell r="E100" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="100">
           <cell r="G100" t="str">
             <v>执行级</v>
           </cell>
@@ -3093,6 +3576,8 @@
           <cell r="E101" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="101">
           <cell r="G101" t="str">
             <v>执行级</v>
           </cell>
@@ -3110,6 +3595,8 @@
           <cell r="E102" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="102">
           <cell r="G102" t="str">
             <v>执行级</v>
           </cell>
@@ -3127,6 +3614,8 @@
           <cell r="E103" t="str">
             <v>组员</v>
           </cell>
+        </row>
+        <row r="103">
           <cell r="G103" t="str">
             <v>执行级</v>
           </cell>
@@ -3180,7 +3669,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3215,7 +3704,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3418,729 +3907,981 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="G4" xSplit="6" ySplit="3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="U4" xSplit="6" ySplit="3"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="S15" pane="bottomRight" sqref="S15"/>
+      <selection activeCell="AA15" pane="bottomRight" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="4.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="6.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="13.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" style="6" width="12.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="6.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="13" width="11.125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="7.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="13" width="10.25" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="6.625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="8.75" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="9.875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="9.25" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="11.5" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="12.375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="12.875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="12.125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="8.25" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="11.875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="12.5" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="10.125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="13.375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="22.5" collapsed="true"/>
-    <col min="28" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="4.5" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="6.125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="13.25" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="12.875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="6.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="24.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="3" width="11.125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="3" width="10.25" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="1" width="6.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="1" width="8.75" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="1" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="1" width="9.875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="1" width="9.25" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="1" width="11.5" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="1" width="12.375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="12.875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="1" width="12.125" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" style="1" width="8.25" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" style="1" width="11.875" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" style="1" width="12.5" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" style="1" width="10.125" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" style="1" width="13.375" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" style="1" width="22.5" collapsed="false"/>
+    <col min="28" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row ht="25.5" r="1" spans="1:27">
-      <c r="A1" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="34" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s" s="10">
+      <c r="A4" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="H4" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="J4" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="L4" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s" s="10">
+      <c r="G4" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="N4" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="O4" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R4" t="s" s="10">
+      <c r="O4" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="S4" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="T4" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="U4" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V4" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="W4" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="X4" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y4" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z4" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA4" t="s" s="10">
+      <c r="P4" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="R4" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="T4" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="U4" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="V4" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y4" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Z4" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA4" t="s" s="11">
         <v>64</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s" s="10">
+      <c r="A5" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="H5" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="I5" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="J5" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="L5" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="M5" t="s" s="10">
+      <c r="G5" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s" s="11">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s" s="11">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="N5" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="O5" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="P5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S5" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="T5" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="U5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V5" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="W5" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="X5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA5" t="s" s="10">
+      <c r="O5" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="R5" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="T5" t="s" s="11">
+        <v>72</v>
+      </c>
+      <c r="U5" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="11">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Z5" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA5" t="s" s="11">
         <v>64</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s" s="10">
+      <c r="A6" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="D6" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="H6" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="J6" t="s" s="10">
-        <v>113</v>
-      </c>
-      <c r="K6" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="M6" t="s" s="10">
+      <c r="C6" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s" s="11">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s" s="11">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s" s="11">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="11">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s" s="11">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="Q6" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="N6" t="s" s="10">
-        <v>115</v>
-      </c>
-      <c r="O6" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="P6" t="s" s="10">
-        <v>117</v>
-      </c>
-      <c r="Q6" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R6" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="S6" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="T6" t="s" s="10">
-        <v>119</v>
-      </c>
-      <c r="U6" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V6" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="W6" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="X6" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y6" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z6" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA6" t="s" s="10">
+      <c r="R6" t="s" s="11">
+        <v>83</v>
+      </c>
+      <c r="S6" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="T6" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="U6" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="W6" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y6" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Z6" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA6" t="s" s="11">
         <v>64</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="10">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s" s="10">
+      <c r="A7" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s" s="11">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s" s="11">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s" s="11">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s" s="11">
         <v>88</v>
       </c>
-      <c r="G7" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="J7" t="s" s="10">
-        <v>113</v>
-      </c>
-      <c r="K7" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="L7" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="M7" t="s" s="10">
+      <c r="N7" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="N7" t="s" s="10">
-        <v>123</v>
-      </c>
-      <c r="O7" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="P7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Q7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="S7" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="T7" t="s" s="10">
-        <v>119</v>
-      </c>
-      <c r="U7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V7" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="W7" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="X7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA7" t="s" s="10">
+      <c r="R7" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="T7" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="U7" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="W7" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y7" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Z7" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA7" t="s" s="11">
         <v>64</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s" s="10">
+      <c r="A8" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s" s="11">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="C8" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s" s="10">
-        <v>125</v>
-      </c>
-      <c r="G8" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s" s="10">
-        <v>127</v>
-      </c>
-      <c r="J8" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="K8" t="s" s="10">
+      <c r="M8" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="N8" t="s" s="11">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="L8" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="M8" t="s" s="10">
+      <c r="Q8" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="N8" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="O8" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="P8" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="Q8" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="R8" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="S8" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="T8" t="s" s="10">
-        <v>133</v>
-      </c>
-      <c r="U8" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="V8" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="W8" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="X8" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Y8" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="Z8" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="AA8" t="s" s="10">
+      <c r="R8" t="s" s="11">
+        <v>98</v>
+      </c>
+      <c r="S8" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="T8" t="s" s="11">
+        <v>99</v>
+      </c>
+      <c r="U8" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="W8" t="s" s="11">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y8" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Z8" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA8" t="s" s="11">
         <v>64</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>66</v>
+      <c r="A9" t="s" s="11">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s" s="11">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="11">
+        <v>106</v>
+      </c>
+      <c r="N9" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="Q9" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="R9" t="s" s="11">
+        <v>107</v>
+      </c>
+      <c r="S9" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="T9" t="s" s="11">
+        <v>108</v>
+      </c>
+      <c r="U9" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="W9" t="s" s="11">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y9" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Z9" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA9" t="s" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s" s="11">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s" s="11">
+        <v>112</v>
+      </c>
+      <c r="I10" t="s" s="11">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s" s="11">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s" s="11">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s" s="11">
+        <v>116</v>
+      </c>
+      <c r="M10" t="s" s="11">
+        <v>117</v>
+      </c>
+      <c r="N10" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s" s="11">
+        <v>118</v>
+      </c>
+      <c r="Q10" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s" s="11">
+        <v>119</v>
+      </c>
+      <c r="S10" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="T10" t="s" s="11">
+        <v>120</v>
+      </c>
+      <c r="U10" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="W10" t="s" s="11">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y10" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Z10" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA10" t="s" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="11">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s" s="11">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s" s="11">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s" s="11">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s" s="11">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s" s="11">
+        <v>127</v>
+      </c>
+      <c r="N11" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="O11" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s" s="11">
+        <v>118</v>
+      </c>
+      <c r="Q11" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="R11" t="s" s="11">
+        <v>128</v>
+      </c>
+      <c r="S11" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="T11" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="U11" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="W11" t="s" s="11">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y11" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="Z11" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA11" t="s" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA12" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA9"/>
+  <autoFilter ref="A3:AA10">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/file/travel.xlsx
+++ b/src/main/webapp/file/travel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8853" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>项目3部</t>
+  </si>
+  <si>
+    <t>385.00</t>
   </si>
 </sst>
 </file>
@@ -3913,7 +3919,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="U4" xSplit="6" ySplit="3"/>
@@ -3925,34 +3931,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="4.5" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="6.125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="13.25" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="12.875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="6.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="24.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="3" width="11.125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="7.5" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="10.25" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="1" width="6.625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="8.75" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="1" width="9.875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="1" width="9.25" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="1" width="11.5" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="1" width="12.375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="1" width="12.875" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="1" width="12.125" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="1" width="8.25" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" style="1" width="11.875" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" style="1" width="12.5" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" style="1" width="10.125" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" style="1" width="13.375" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" style="1" width="22.5" collapsed="false"/>
-    <col min="28" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="4.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="6.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="13.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="12.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="6.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="11.125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="7.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="10.25" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="6.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="8.75" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="9.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="9.25" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="11.5" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="12.375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="12.875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="12.125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="8.25" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="11.875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="12.5" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="10.125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="13.375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="22.5" collapsed="true"/>
+    <col min="28" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="25.5" r="1" spans="1:27">
@@ -4111,10 +4117,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s" s="11">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s" s="11">
         <v>30</v>
@@ -4135,16 +4141,16 @@
         <v>54</v>
       </c>
       <c r="J4" t="s" s="11">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s" s="11">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s" s="11">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s" s="11">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s" s="11">
         <v>59</v>
@@ -4153,19 +4159,19 @@
         <v>60</v>
       </c>
       <c r="P4" t="s" s="11">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s" s="11">
         <v>59</v>
       </c>
       <c r="R4" t="s" s="11">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="11">
         <v>62</v>
       </c>
       <c r="T4" t="s" s="11">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="11">
         <v>59</v>
@@ -4174,7 +4180,7 @@
         <v>63</v>
       </c>
       <c r="W4" t="s" s="11">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="X4" t="s" s="11">
         <v>59</v>
@@ -4194,43 +4200,43 @@
         <v>65</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s" s="11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s" s="11">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="11">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s" s="11">
         <v>32</v>
       </c>
       <c r="H5" t="s" s="11">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s" s="11">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="11">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="11">
         <v>68</v>
       </c>
       <c r="L5" t="s" s="11">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s" s="11">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s" s="11">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s" s="11">
         <v>60</v>
@@ -4248,16 +4254,16 @@
         <v>62</v>
       </c>
       <c r="T5" t="s" s="11">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="U5" t="s" s="11">
         <v>59</v>
       </c>
       <c r="V5" t="s" s="11">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s" s="11">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s" s="11">
         <v>59</v>
@@ -4277,10 +4283,10 @@
         <v>75</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s" s="11">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s" s="11">
         <v>30</v>
@@ -4289,49 +4295,49 @@
         <v>30</v>
       </c>
       <c r="F6" t="s" s="11">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s" s="11">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s" s="11">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="11">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="11">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="11">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="11">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s" s="11">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s" s="11">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="Q6" t="s" s="11">
         <v>59</v>
       </c>
       <c r="R6" t="s" s="11">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="S6" t="s" s="11">
         <v>62</v>
       </c>
       <c r="T6" t="s" s="11">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="U6" t="s" s="11">
         <v>59</v>
@@ -4340,7 +4346,7 @@
         <v>63</v>
       </c>
       <c r="W6" t="s" s="11">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="X6" t="s" s="11">
         <v>59</v>
@@ -4363,7 +4369,7 @@
         <v>87</v>
       </c>
       <c r="C7" t="s" s="11">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s" s="11">
         <v>30</v>
@@ -4372,49 +4378,49 @@
         <v>30</v>
       </c>
       <c r="F7" t="s" s="11">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s" s="11">
         <v>32</v>
       </c>
       <c r="H7" t="s" s="11">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s" s="11">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s" s="11">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="11">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="11">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="11">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="11">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s" s="11">
         <v>60</v>
       </c>
       <c r="P7" t="s" s="11">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="Q7" t="s" s="11">
         <v>59</v>
       </c>
       <c r="R7" t="s" s="11">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="S7" t="s" s="11">
         <v>62</v>
       </c>
       <c r="T7" t="s" s="11">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="U7" t="s" s="11">
         <v>59</v>
@@ -4423,7 +4429,7 @@
         <v>63</v>
       </c>
       <c r="W7" t="s" s="11">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="X7" t="s" s="11">
         <v>59</v>
@@ -4439,417 +4445,85 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s" s="11">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s" s="11">
-        <v>91</v>
-      </c>
-      <c r="I8" t="s" s="11">
-        <v>92</v>
-      </c>
-      <c r="J8" t="s" s="11">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s" s="11">
-        <v>94</v>
-      </c>
-      <c r="M8" t="s" s="11">
-        <v>95</v>
-      </c>
-      <c r="N8" t="s" s="11">
-        <v>96</v>
-      </c>
-      <c r="O8" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s" s="11">
-        <v>97</v>
-      </c>
-      <c r="Q8" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="R8" t="s" s="11">
-        <v>98</v>
-      </c>
-      <c r="S8" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="T8" t="s" s="11">
-        <v>99</v>
-      </c>
-      <c r="U8" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="V8" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="W8" t="s" s="11">
-        <v>100</v>
-      </c>
-      <c r="X8" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="Y8" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="Z8" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="AA8" t="s" s="11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="G9" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s" s="11">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s" s="11">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="L9" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="M9" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="N9" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="O9" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="P9" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="Q9" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="R9" t="s" s="11">
-        <v>107</v>
-      </c>
-      <c r="S9" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="T9" t="s" s="11">
-        <v>108</v>
-      </c>
-      <c r="U9" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="V9" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="W9" t="s" s="11">
-        <v>109</v>
-      </c>
-      <c r="X9" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="Y9" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="Z9" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="AA9" t="s" s="11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="11">
-        <v>110</v>
-      </c>
-      <c r="B10" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s" s="11">
-        <v>111</v>
-      </c>
-      <c r="G10" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s" s="11">
-        <v>112</v>
-      </c>
-      <c r="I10" t="s" s="11">
-        <v>113</v>
-      </c>
-      <c r="J10" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="K10" t="s" s="11">
-        <v>115</v>
-      </c>
-      <c r="L10" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="M10" t="s" s="11">
-        <v>117</v>
-      </c>
-      <c r="N10" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="O10" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="P10" t="s" s="11">
-        <v>118</v>
-      </c>
-      <c r="Q10" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="R10" t="s" s="11">
-        <v>119</v>
-      </c>
-      <c r="S10" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="T10" t="s" s="11">
-        <v>120</v>
-      </c>
-      <c r="U10" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="V10" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="W10" t="s" s="11">
-        <v>121</v>
-      </c>
-      <c r="X10" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="Y10" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="Z10" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="AA10" t="s" s="11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="11">
-        <v>122</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s" s="11">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s" s="11">
-        <v>124</v>
-      </c>
-      <c r="J11" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="K11" t="s" s="11">
-        <v>126</v>
-      </c>
-      <c r="L11" t="s" s="11">
-        <v>122</v>
-      </c>
-      <c r="M11" t="s" s="11">
-        <v>127</v>
-      </c>
-      <c r="N11" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="O11" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="P11" t="s" s="11">
-        <v>118</v>
-      </c>
-      <c r="Q11" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="R11" t="s" s="11">
-        <v>128</v>
-      </c>
-      <c r="S11" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="T11" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="U11" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="V11" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="W11" t="s" s="11">
-        <v>130</v>
-      </c>
-      <c r="X11" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="Y11" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="Z11" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="AA11" t="s" s="11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="Q8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="T8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="V8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="W8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="X8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Y8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="Z8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AA12" s="19" t="s">
+      <c r="AA8" s="19" t="s">
         <v>131</v>
       </c>
     </row>
